--- a/RPL_V2/Update_Jul_2025/Балтика/club_baltika.xlsx
+++ b/RPL_V2/Update_Jul_2025/Балтика/club_baltika.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F43E44-C347-43FD-8DC9-30CBB0FB3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,7 +541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,18 +578,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -870,11 +865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A5" activeCellId="4" sqref="A13:XFD13 A12:XFD12 A8:XFD8 A6:XFD6 A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1585,17 +1580,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>155</v>
       </c>
@@ -1636,18 +1630,17 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1687,17 +1680,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1738,17 +1730,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
@@ -1789,14 +1780,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1842,17 +1833,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
@@ -1865,39 +1855,39 @@
       <c r="H19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>89</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1946,17 +1936,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>155</v>
       </c>
@@ -1997,8 +1986,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2007,7 +1996,6 @@
       <c r="C22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>102</v>
       </c>
@@ -2048,8 +2036,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2058,7 +2046,6 @@
       <c r="C23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
@@ -2071,36 +2058,36 @@
       <c r="H23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>111</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="1" t="s">
         <v>112</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>113</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2151,7 +2138,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2173,36 +2160,36 @@
       <c r="H25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>140</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="1" t="s">
         <v>140</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="1" t="s">
         <v>140</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2226,36 +2213,36 @@
       <c r="H26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="1" t="s">
         <v>165</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="1" t="s">
         <v>164</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="1" t="s">
         <v>163</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2306,7 +2293,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2357,7 +2344,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2459,7 +2446,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
